--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-prescription-proposal-type</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-prescription-proposal-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-be-prescription-proposal-type.xlsx
+++ b/CodeSystem-be-prescription-proposal-type.xlsx
@@ -260,10 +260,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
